--- a/Excel/Survey data analysis.xlsx
+++ b/Excel/Survey data analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederikgoedkoop/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederikgoedkoop/Library/Mobile Documents/com~apple~CloudDocs/AA DROPBOX/@@Bio Engineering/2Ma BIR/Master thesis/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38371D-3D2D-4040-93AC-1BBD8642147C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2BC02-F922-7E4E-891C-46EE455FF65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-760" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey questions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="341">
   <si>
     <t>Fitness history survey (both groups)</t>
   </si>
@@ -1052,6 +1052,12 @@
   </si>
   <si>
     <t>Avatar system (customising profile)</t>
+  </si>
+  <si>
+    <t>Control Group</t>
+  </si>
+  <si>
+    <t>Experimental Group</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1067,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1115,6 +1121,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1187,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,8 +1406,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1406,6 +1423,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1419,10 +1440,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1677,7 +1694,9 @@
   </sheetPr>
   <dimension ref="B2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2354,14 +2373,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AC56"/>
+  <dimension ref="B1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="7" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
@@ -2378,32 +2398,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="85" t="s">
+      <c r="U1" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -2448,7 +2468,7 @@
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="80" t="s">
+      <c r="U3" s="83" t="s">
         <v>124</v>
       </c>
       <c r="V3" s="70"/>
@@ -2459,21 +2479,18 @@
     </row>
     <row r="5" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="11" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -2514,24 +2531,13 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:29" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>142</v>
-      </c>
+      <c r="B6" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="J6" s="73" t="s">
         <v>141</v>
       </c>
@@ -2573,19 +2579,20 @@
       <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="18" t="s">
@@ -2623,19 +2630,18 @@
       <c r="AC7" s="14"/>
     </row>
     <row r="8" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="14" t="s">
@@ -2673,21 +2679,18 @@
       <c r="AC8" s="14"/>
     </row>
     <row r="9" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="70"/>
-      <c r="C9" s="74" t="s">
-        <v>170</v>
+      <c r="B9" s="73"/>
+      <c r="C9" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="14" t="s">
@@ -2725,19 +2728,20 @@
       <c r="AC9" s="14"/>
     </row>
     <row r="10" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J10" s="70"/>
       <c r="K10" s="14" t="s">
@@ -2775,18 +2779,17 @@
       <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J11" s="70"/>
@@ -2828,18 +2831,17 @@
       <c r="AC11" s="14"/>
     </row>
     <row r="12" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="73" t="s">
@@ -2880,18 +2882,17 @@
       <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="70"/>
@@ -2930,18 +2931,17 @@
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="70"/>
@@ -2967,18 +2967,17 @@
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J15" s="70"/>
@@ -3003,18 +3002,17 @@
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="20" t="s">
@@ -3036,7 +3034,7 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76" t="s">
+      <c r="U16" s="77" t="s">
         <v>215</v>
       </c>
       <c r="V16" s="70"/>
@@ -3051,18 +3049,17 @@
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="14" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="20" t="s">
@@ -3097,18 +3094,17 @@
       <c r="AC17" s="14"/>
     </row>
     <row r="18" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="14" t="s">
         <v>185</v>
       </c>
       <c r="L18" s="28" t="s">
@@ -3136,19 +3132,18 @@
       <c r="AC18" s="14"/>
     </row>
     <row r="19" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="L19" s="32"/>
       <c r="P19" s="33"/>
@@ -3173,19 +3168,18 @@
       <c r="AC19" s="14"/>
     </row>
     <row r="20" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>185</v>
+      <c r="F20" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="L20" s="32"/>
       <c r="P20" s="33"/>
@@ -3210,23 +3204,18 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>233</v>
+      <c r="B21" s="74"/>
+      <c r="C21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="L21" s="32"/>
       <c r="P21" s="33"/>
@@ -3251,20 +3240,13 @@
       <c r="AC21" s="14"/>
     </row>
     <row r="22" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B22" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="L22" s="32"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
@@ -3288,19 +3270,20 @@
       <c r="AC22" s="14"/>
     </row>
     <row r="23" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="L23" s="32"/>
       <c r="P23" s="33"/>
@@ -3325,19 +3308,18 @@
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="L24" s="32"/>
       <c r="P24" s="33"/>
@@ -3362,18 +3344,17 @@
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="14" t="s">
         <v>175</v>
       </c>
       <c r="L25" s="32"/>
@@ -3393,19 +3374,18 @@
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="L26" s="32"/>
       <c r="P26" s="13"/>
@@ -3421,21 +3401,18 @@
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="70"/>
-      <c r="C27" s="74" t="s">
-        <v>170</v>
+      <c r="B27" s="73"/>
+      <c r="C27" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L27" s="32"/>
       <c r="P27" s="13"/>
@@ -3458,19 +3435,18 @@
       <c r="AC27" s="14"/>
     </row>
     <row r="28" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L28" s="32"/>
       <c r="P28" s="13"/>
@@ -3489,19 +3465,20 @@
       <c r="AC28" s="14"/>
     </row>
     <row r="29" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L29" s="32"/>
       <c r="P29" s="13"/>
@@ -3528,19 +3505,18 @@
       <c r="AC29" s="14"/>
     </row>
     <row r="30" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -3566,18 +3542,17 @@
       <c r="AC30" s="14"/>
     </row>
     <row r="31" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="14" t="s">
         <v>185</v>
       </c>
       <c r="P31" s="13"/>
@@ -3604,18 +3579,17 @@
       <c r="AC31" s="14"/>
     </row>
     <row r="32" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="14" t="s">
         <v>185</v>
       </c>
       <c r="P32" s="13"/>
@@ -3642,18 +3616,17 @@
       <c r="AC32" s="14"/>
     </row>
     <row r="33" spans="2:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="14" t="s">
         <v>185</v>
       </c>
       <c r="P33" s="13"/>
@@ -3679,7 +3652,20 @@
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
-    <row r="34" spans="2:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:29" ht="56" x14ac:dyDescent="0.15">
+      <c r="B34" s="73"/>
+      <c r="C34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="U34" s="5" t="s">
         <v>272</v>
       </c>
@@ -3694,6 +3680,19 @@
       </c>
     </row>
     <row r="35" spans="2:29" ht="42" x14ac:dyDescent="0.15">
+      <c r="B35" s="74"/>
+      <c r="C35" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>185</v>
+      </c>
       <c r="U35" s="22" t="s">
         <v>274</v>
       </c>
@@ -3737,7 +3736,7 @@
       </c>
     </row>
     <row r="40" spans="2:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="U40" s="77" t="s">
+      <c r="U40" s="78" t="s">
         <v>277</v>
       </c>
       <c r="V40" s="70"/>
@@ -3831,12 +3830,12 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
-      <c r="U45" s="78" t="s">
+      <c r="U45" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
     </row>
     <row r="46" spans="2:29" ht="56" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
@@ -3945,12 +3944,12 @@
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="U51" s="78" t="s">
+      <c r="U51" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="V51" s="75"/>
-      <c r="W51" s="75"/>
-      <c r="X51" s="75"/>
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
       <c r="AA51" s="28"/>
     </row>
     <row r="52" spans="2:27" ht="140" x14ac:dyDescent="0.15">
@@ -3966,7 +3965,7 @@
       <c r="V52" s="19">
         <v>2</v>
       </c>
-      <c r="W52" s="79" t="s">
+      <c r="W52" s="80" t="s">
         <v>47</v>
       </c>
       <c r="X52" s="3" t="s">
@@ -4028,32 +4027,501 @@
       <c r="V56" s="47">
         <v>1</v>
       </c>
-      <c r="W56" s="75"/>
+      <c r="W56" s="76"/>
       <c r="X56" s="4" t="s">
         <v>307</v>
       </c>
     </row>
+    <row r="58" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+    </row>
+    <row r="60" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="73"/>
+      <c r="D61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="73"/>
+      <c r="D62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="73"/>
+      <c r="D64" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="73"/>
+      <c r="D65" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="73"/>
+      <c r="D66" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="73"/>
+      <c r="D67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="73"/>
+      <c r="D68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="73"/>
+      <c r="D69" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="73"/>
+      <c r="D70" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="73"/>
+      <c r="D71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="73"/>
+      <c r="D72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="73"/>
+      <c r="D73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="74"/>
+      <c r="D74" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+    </row>
+    <row r="76" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="73"/>
+      <c r="D77" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="73"/>
+      <c r="D78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="73"/>
+      <c r="D79" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="73"/>
+      <c r="D80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="73"/>
+      <c r="D81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="73"/>
+      <c r="D83" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="73"/>
+      <c r="D84" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="73"/>
+      <c r="D85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="73"/>
+      <c r="D86" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="73"/>
+      <c r="D87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="74"/>
+      <c r="D88" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="U3:X3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="U16:X16"/>
     <mergeCell ref="U40:X40"/>
     <mergeCell ref="U45:X45"/>
     <mergeCell ref="U51:X51"/>
     <mergeCell ref="W52:W56"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="J6:J11"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="J12:J15"/>
-    <mergeCell ref="B21:B33"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B6:B20"/>
-    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="C82:C88"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="C76:C81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4067,7 +4535,7 @@
   <dimension ref="B1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4080,31 +4548,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="G1" s="85" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="G1" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="L1" s="85" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="L1" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>311</v>
       </c>
       <c r="C3" s="68"/>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>312</v>
       </c>
       <c r="E3" s="68"/>
@@ -4143,7 +4611,7 @@
       <c r="E4" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="86" t="s">
         <v>137</v>
       </c>
       <c r="H4" s="68"/>
@@ -4348,7 +4816,7 @@
       <c r="E10" s="54">
         <v>0.47368421052631576</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="87" t="s">
         <v>230</v>
       </c>
       <c r="H10" s="68"/>
@@ -4463,7 +4931,7 @@
       <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="84" t="s">
         <v>137</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -4542,7 +5010,7 @@
       </c>
     </row>
     <row r="23" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="84" t="s">
         <v>230</v>
       </c>
       <c r="H23" s="14" t="s">
